--- a/processing/test/20230613-a1r-nc-session3-b_transcript.xlsx
+++ b/processing/test/20230613-a1r-nc-session3-b_transcript.xlsx
@@ -6,8 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20230613-a1r-nc-session3-b_tran" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="proposal" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -62,7 +61,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -73,6 +72,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,491 +361,516 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="12.6328125" customWidth="1" style="3" min="1" max="1"/>
+    <col width="12.5" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13.5" customWidth="1" min="2" max="2"/>
+    <col width="13.5" customWidth="1" min="3" max="3"/>
+    <col width="214" customWidth="1" min="4" max="4"/>
+    <col width="16.5" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>speaker</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Order</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Speaker</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Has Arguments</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>All Arguments Summarized</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Order</t>
-        </is>
-      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="n">
         <v>48778</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>"2:10"</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>I'm really glad her. I'm a retired Carpenter live in Western North Carolina, and appreciate the opportunity to be a part of this.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="n">
         <v>10406</v>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>"2:26"</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>Hi, my name is David. I live in California Bay Area.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="n"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="n">
-        <v>48616</v>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="A4" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>48616</v>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>"2:35"</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>Hi. My name's Terry. Cobbs. I'm from born in Detroit. I'm currently living out on the West Side Kalamazoo.</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
-      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="n">
-        <v>48616</v>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="A5" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>48616</v>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>"2:35"</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
+      <c r="D5" s="6" t="n"/>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="n"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="n">
-        <v>48616</v>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="A6" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>48616</v>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>"2:49"</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="n">
         <v>48774</v>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>"3:04"</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
+      <c r="D7" s="6" t="n"/>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="n"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="n">
         <v>48774</v>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>"3:04"</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="n"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2" t="n">
-        <v>48616</v>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="A9" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>48616</v>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>"11:18"</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
         <is>
           <t>I definitely think that you should continue to be able to opt out like we have at the Secretary of State.</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The writer thinks it's a good idea to continue allowing people to opt out of something, as is the current practice at the Secretary of State.
 2. There are no specific arguments or points detailed about why this is thought to be a good idea.</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2" t="n">
-        <v>48616</v>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="A10" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>48616</v>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>"11:18"</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
         <is>
           <t>I think that you should have a proper state ID to be able to vote.</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. It is important to have a proper state ID
 2. A state ID is necessary to be able to vote</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="2" t="n">
-        <v>48616</v>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="A11" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>48616</v>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>"11:18"</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
         <is>
           <t>Should be able to get around that.</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="n"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="n">
-        <v>48616</v>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="A12" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>48616</v>
+      </c>
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>"11:18"</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="D12" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> and,</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>11</v>
-      </c>
+      <c r="E12" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F12" s="6" t="n"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="2" t="n">
-        <v>48616</v>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="A13" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>48616</v>
+      </c>
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>"11:18"</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="D13" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> I think you should be able to register to vote on voting day, but it's going to cause rockish at the voting poll and slow things down. So,</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>12</v>
-      </c>
+      <c r="E13" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F13" s="6" t="n"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="n">
-        <v>48616</v>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="A14" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="n">
+        <v>48616</v>
+      </c>
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>"11:18"</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="D14" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> That's kind of a if you deal there, then again, I'll voting should be done prior to getting to the voting polls.</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> It seems like the text you provided is not well-structured and has some grammatical errors, which makes it difficult to summarize. However, based on my understanding, here's a possible summary:
-1. The text suggests that there is a discussion about dealing with some situation at the voting polls.
-2. The speaker seems to imply that voting decisions should be made before arriving at the polls.
-3. The speaker appears to favor voting in advance or having a clear intention before going to the polls.</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>13</v>
+      <c r="E14" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F14" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> It seems like the text you provided is not well-structured and has some grammatical errors, making it difficult to summarize. However, based on my understanding, here's a possible summary:
+1. The text suggests that there is a discussion about the voting process.
+2. The speaker seems to support the idea of voting before arriving at the polls.
+3. The exact argument or context for this view is not provided in the text.</t>
+        </is>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="2" t="n">
-        <v>48616</v>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="A15" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>48616</v>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
         <is>
           <t>"12:01"</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>14</v>
-      </c>
+      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="n"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="n">
         <v>10406</v>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>"12:07"</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="D16" s="6" t="inlineStr">
         <is>
           <t>No, I would be in support of being able to register to vote online. It makes sense. Not sure why it's still pen and paper, or going to the to the polls. I mean, that's definitely something to that. But yeah, being able to vote online, make sense verify, maybe with a credit card or something else, some kind of method birth certificate, naturalization certificate and</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>15</v>
-      </c>
+      <c r="E16" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F16" s="6" t="n"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="n">
         <v>10406</v>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>"12:07"</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="D17" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> For the automotive Matic voter registration that makes sense to you know maybe just at Birth, you know. And then when 18 years old comes around or what not, and when you become naturalized,</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F17" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text proposes automotive Matic voter registration at birth.
 2. Voter registration would also be applied when an individual turns 18 years old.
 3. Additionally, voter registration would be updated when an individual becomes naturalized.</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="n">
         <v>48622</v>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="C18" s="6" t="inlineStr">
         <is>
           <t>"13:00"</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="D18" s="6" t="inlineStr">
         <is>
           <t>Yeah, I agree for the most part. I do, I do feel like being able to vote online, does increase the risk of hackers and all that especially with bigger elections, presidential election and stuff. But the ease of being able to vote online would definitely be nice.</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F18" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The reader agrees with the idea that online voting increases the risk of hacking.
 2. This concern is particularly relevant for larger elections, such as presidential elections.
 3. The reader acknowledges the convenience of online voting.</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>17</v>
-      </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="n">
         <v>48778</v>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>"15:16"</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="D19" s="6" t="inlineStr">
         <is>
           <t>I have a tendency to agree with the most of those although I don't particularly like the idea of the election day registration.</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F19" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker has a tendency to agree with most things.
 2. There is one thing they don't particularly like.
 3. The thing they don't like is election day registration.</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>18</v>
-      </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="n">
         <v>48778</v>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>"15:16"</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="D20" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> The gentleman who spoke before me indicated that it would create a lot of confusion and aggravation at the polling place in that, I feared, that it would and where I vote. There is just about always a long line of people waiting. So to add to the confusion would be improper in my thinking,</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F20" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. A gentleman spoke before the author about a concern.
 2. The concern was that a certain action would cause confusion and aggravation.
@@ -852,66 +879,70 @@
 5. The author believes that adding to the confusion would be improper.</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>19</v>
-      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="n">
         <v>48778</v>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="C21" s="6" t="inlineStr">
         <is>
           <t>"16:01"</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>20</v>
-      </c>
+      <c r="D21" s="6" t="n"/>
+      <c r="E21" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F21" s="6" t="n"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="n">
         <v>48778</v>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="C22" s="6" t="inlineStr">
         <is>
           <t>"16:01"</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>21</v>
-      </c>
+      <c r="D22" s="6" t="n"/>
+      <c r="E22" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F22" s="6" t="n"/>
     </row>
     <row r="23" ht="12.5" customHeight="1">
-      <c r="A23" s="2" t="n">
-        <v>48616</v>
-      </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="A23" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="n">
+        <v>48616</v>
+      </c>
+      <c r="C23" s="6" t="inlineStr">
         <is>
           <t>"16:05"</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="D23" s="6" t="inlineStr">
         <is>
           <t>I think we definitely need to have security cams on the drop-off post, you should definitely have only a family member driving off your voting ballot. There's a lot of question as to meals, they were calling them taking a stacks of valid to the drop-off boxes last election. So we got to stop that.</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F23" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. Security cameras are needed on the drop-off post.
 2. Only a family member should drive off a voting ballot.
@@ -919,175 +950,174 @@
 4. Measures should be taken to stop this practice from happening again.</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>22</v>
-      </c>
     </row>
     <row r="24" ht="12.5" customHeight="1">
-      <c r="A24" s="2" t="n">
-        <v>48616</v>
-      </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="A24" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="n">
+        <v>48616</v>
+      </c>
+      <c r="C24" s="6" t="inlineStr">
         <is>
           <t>"16:05"</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="D24" s="6" t="inlineStr">
         <is>
           <t>And that's what I'm I just wanted to leave that.</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>23</v>
-      </c>
+      <c r="E24" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F24" s="6" t="n"/>
     </row>
     <row r="25" ht="12.5" customHeight="1">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="n">
         <v>48778</v>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="C25" s="6" t="inlineStr">
         <is>
           <t>"16:40"</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>24</v>
-      </c>
+      <c r="D25" s="6" t="n"/>
+      <c r="E25" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F25" s="6" t="n"/>
     </row>
     <row r="26" ht="12.5" customHeight="1">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="n">
         <v>48778</v>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="C26" s="6" t="inlineStr">
         <is>
           <t>"16:40"</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>25</v>
-      </c>
+      <c r="D26" s="6" t="n"/>
+      <c r="E26" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F26" s="6" t="n"/>
     </row>
     <row r="27" ht="12.5" customHeight="1">
-      <c r="A27" s="2" t="n">
-        <v>48616</v>
-      </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="A27" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="n">
+        <v>48616</v>
+      </c>
+      <c r="C27" s="6" t="inlineStr">
         <is>
           <t>"18:19"</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="D27" s="6" t="inlineStr">
         <is>
           <t>I like to see Congress that one set of rules for everybody. So it seems a little bit more balanced across the board so nobody can see this for one stayed in this for another that they didn't have a fair chance. I want to see a picture ID across the board for voting. I think that when you get online and you start working with online, I believe that hacking can come about. I heard some good ideas for online</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. The speaker believes in having one set of rules for everyone in Congress to promote balance.
-2. They advocate for a balanced system where nobody has an unfair advantage over others.
-3. The speaker supports the requirement of a picture ID for voting to ensure fairness.
-4. They express concern about hacking in online systems.
-5. The speaker has heard good ideas for working with online systems.</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>26</v>
-      </c>
+      <c r="E27" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F27" s="6" t="n"/>
     </row>
     <row r="28" ht="12.5" customHeight="1">
-      <c r="A28" s="2" t="n">
-        <v>48616</v>
-      </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="A28" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="n">
+        <v>48616</v>
+      </c>
+      <c r="C28" s="6" t="inlineStr">
         <is>
           <t>"18:19"</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="D28" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> I'm voting using birth certificate and your credit card, but I don't think it's solid enough. They do need to come up with a solid online planets are going to use it. I'm not totally against it.</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>27</v>
-      </c>
+      <c r="E28" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F28" s="6" t="n"/>
     </row>
     <row r="29" ht="12.5" customHeight="1">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="n">
         <v>48692</v>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="C29" s="6" t="inlineStr">
         <is>
           <t>"19:04"</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="D29" s="6" t="inlineStr">
         <is>
           <t>I worked in local polling place for 30 years so I know what it's like we in Indiana. Would we do use the ID and in my local Precinct we have never had a problem with people having to show their ID known as complained. It's never been an issue when you know, people talk about it and what they hear but it's never really been an issue.</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. The author has worked in a local polling place for 30 years.
-2. The author is familiar with Indiana's voting process, which requires voters to show ID.
-3. In the author's local precinct, there has never been a problem with the ID requirement.
-4. The author asserts that issues with the ID requirement are not common and are often based on hearsay rather than personal experience.</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>28</v>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F29" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. The speaker has worked in a local polling place for 30 years.
+2. The speaker is familiar with voting procedures in Indiana.
+3. In the speaker's local precinct, requiring voters to show ID has not been a problem.
+4. The speaker claims that there have been no complaints about showing ID in their precinct.
+5. The speaker suggests that concerns about showing ID are based on hearsay and not on personal experience.</t>
+        </is>
       </c>
     </row>
     <row r="30" ht="12.5" customHeight="1">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="n">
         <v>48692</v>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="C30" s="6" t="inlineStr">
         <is>
           <t>"19:04"</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="D30" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> And same-day registration, that would be really tough. Unless there was a nationwide voter base to where it could be checked against make, sure people aren't voting and more than one place.</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F30" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The topic is about same-day registration for voting.
 2. The process of same-day registration would be difficult to implement.
@@ -1095,172 +1125,178 @@
 4. A nationwide voter base check would be required to prevent this issue.</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>29</v>
-      </c>
     </row>
     <row r="31" ht="12.5" customHeight="1">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="n">
         <v>10406</v>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="C31" s="6" t="inlineStr">
         <is>
           <t>"19:47"</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>30</v>
-      </c>
+      <c r="D31" s="6" t="n"/>
+      <c r="E31" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F31" s="6" t="n"/>
     </row>
     <row r="32" ht="12.5" customHeight="1">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="n">
         <v>10406</v>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="C32" s="6" t="inlineStr">
         <is>
           <t>"19:47"</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="D32" s="6" t="inlineStr">
         <is>
           <t>I just wanted to touch base on the last topic. I would be against the video cameras. I mean, you would need people monitoring that afterwards so it's going to cost a lot, would it work? And all of that? Just the cost of having cameras everywhere, the wiring that up having the employees to, to review that? And what about the laws are reviewing that? So</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F32" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker is against the last topic, which may have been about installing video cameras.
-2. Their concerns include:
-	* The cost of having people monitor the footage.
-	* The effectiveness of cameras in preventing issues.
-	* The high cost of installing and maintaining cameras.
-	* The need for employees to wire up the cameras.
-	* Laws regarding the review of camera footage.</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>31</v>
+2. They believe that having cameras would require additional costs, including people to monitor the footage.
+3. The speaker questions the effectiveness of cameras and whether they would actually work.
+4. They mention the cost of installing and maintaining the cameras, including the wiring and employees needed.
+5. The speaker also brings up legal concerns regarding the review of footage.</t>
+        </is>
       </c>
     </row>
     <row r="33" ht="12.5" customHeight="1">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="n">
         <v>10406</v>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="C33" s="6" t="inlineStr">
         <is>
           <t>"19:47"</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="D33" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> So, that's the last topic for this one. Yeah, I agree with having a national standard, for whatever, whatever we or they agree on.</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>32</v>
-      </c>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F33" s="6" t="n"/>
     </row>
     <row r="34" ht="12.5" customHeight="1">
-      <c r="A34" s="2" t="n">
-        <v>48616</v>
-      </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="A34" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="n">
+        <v>48616</v>
+      </c>
+      <c r="C34" s="6" t="inlineStr">
         <is>
           <t>"20:35"</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>33</v>
-      </c>
+      <c r="D34" s="6" t="n"/>
+      <c r="E34" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F34" s="6" t="n"/>
     </row>
     <row r="35" ht="12.5" customHeight="1">
-      <c r="A35" s="2" t="n">
-        <v>48616</v>
-      </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="A35" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="n">
+        <v>48616</v>
+      </c>
+      <c r="C35" s="6" t="inlineStr">
         <is>
           <t>"20:35"</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="D35" s="6" t="inlineStr">
         <is>
           <t>I want to see cameras because we caught orders in fried last time, delivering stacks of voting vallez, so we need to change something there. People can't be allowed to take stacks of votes to the</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. The need for camera installation has arisen due to past incidents of issues with orders, specifically involving "fried" orders and the delivery of "stacks of voting vallez."
-2. The installation of cameras is necessary to ensure that such incidents do not occur again.
-3. The presence of cameras would help in maintaining the integrity of the process and preventing any unauthorized or improper activities.
-4. By addressing this issue, it will be possible to uphold the necessary standards and regulations, and ensure that people are not able to take stacks of votes, which could potentially compromise the voting process.</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>34</v>
+      <c r="E35" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F35" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. The need for camera installation has arisen due to past incidents of order mishandling.
+2. In a previous instance, fried orders were delivered instead of voting materials, specifically "stacks of voting vallez."
+3. This mistake must be avoided in the future, necessitating a change in the current system.
+4. The installation of cameras is proposed to enhance security and monitoring capabilities.
+5. The primary goal is to prevent unauthorized handling or mishandling of voting materials during delivery.</t>
+        </is>
       </c>
     </row>
     <row r="36" ht="12.5" customHeight="1">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="n">
         <v>48692</v>
       </c>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="C36" s="6" t="inlineStr">
         <is>
           <t>"20:51"</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>35</v>
-      </c>
+      <c r="D36" s="6" t="n"/>
+      <c r="E36" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F36" s="6" t="n"/>
     </row>
     <row r="37" ht="12.5" customHeight="1">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="n">
         <v>48692</v>
       </c>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="C37" s="6" t="inlineStr">
         <is>
           <t>"20:51"</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="D37" s="6" t="inlineStr">
         <is>
           <t>Having the same standard Nationwide would also be beneficial in my view yet you hear a lot where people come and they've moved from somewhere else and it will this is how we do it over there and it's how we do it in this state. Well, everybody needs to be doing it the same way.</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
+      <c r="E37" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F37" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. Having the same standard Nationwide is beneficial.
 2. People move from different places and have varying methods of doing things.
@@ -1268,160 +1304,162 @@
 4. It is suggested that everyone should do things the same way, regardless of location.</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>36</v>
-      </c>
     </row>
     <row r="38" ht="12.5" customHeight="1">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="n">
         <v>48745</v>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="C38" s="6" t="inlineStr">
         <is>
           <t>"21:13"</t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="D38" s="6" t="inlineStr">
         <is>
           <t>I definitely don't think there should be cameras, just don't agree with that idea.</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
+      <c r="E38" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F38" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person strongly disagrees with the idea of installing cameras.
 2. No specific reasons for the opposition are provided in the text.</t>
         </is>
       </c>
-      <c r="F38" t="n">
-        <v>37</v>
-      </c>
     </row>
     <row r="39" ht="12.5" customHeight="1">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="n">
         <v>48745</v>
       </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="C39" s="6" t="inlineStr">
         <is>
           <t>"21:46"</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>38</v>
-      </c>
+      <c r="D39" s="6" t="n"/>
+      <c r="E39" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F39" s="6" t="n"/>
     </row>
     <row r="40" ht="12.5" customHeight="1">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="n">
         <v>48745</v>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="C40" s="6" t="inlineStr">
         <is>
           <t>"21:46"</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="D40" s="6" t="inlineStr">
         <is>
           <t>I do feel like voting rights should be restored. Once you've served your time and have been released from prison,</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. The individual has served their time in prison.
-2. The individual's voting rights should be restored.
-3. This is based on the principle of rehabilitation and reintegration.</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>39</v>
+      <c r="E40" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F40" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. The right to vote should be restored to individuals who have completed their prison sentence.
+2. This position is based on the belief that voting rights should be restored after serving time.</t>
+        </is>
       </c>
     </row>
     <row r="41" ht="12.5" customHeight="1">
-      <c r="A41" s="2" t="n">
-        <v>48616</v>
-      </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="A41" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6" t="n">
+        <v>48616</v>
+      </c>
+      <c r="C41" s="6" t="inlineStr">
         <is>
           <t>"21:59"</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="D41" s="6" t="inlineStr">
         <is>
           <t>I agree, you shouldn't it's none of our business so we restore their rights once they've done their time it's it's over so they need to have their rights back.</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
+      <c r="E41" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F41" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. It is not appropriate for people to interfere with the rights of individuals who have served their time.
 2. Once a person has completed their sentence, their rights should be restored.
 3. It is important for individuals to have their rights back after serving time.</t>
         </is>
       </c>
-      <c r="F41" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="42" ht="12.5" customHeight="1">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="n">
         <v>48778</v>
       </c>
-      <c r="B42" s="4" t="inlineStr">
+      <c r="C42" s="6" t="inlineStr">
         <is>
           <t>"22:13"</t>
         </is>
       </c>
-      <c r="C42" s="4" t="inlineStr">
+      <c r="D42" s="6" t="inlineStr">
         <is>
           <t>I have to tend to agree with that. I know some released felons and the majority of them are people who</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>41</v>
-      </c>
+      <c r="E42" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F42" s="6" t="n"/>
     </row>
     <row r="43" ht="12.5" customHeight="1">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="n">
         <v>48778</v>
       </c>
-      <c r="B43" s="4" t="inlineStr">
+      <c r="C43" s="6" t="inlineStr">
         <is>
           <t>"22:13"</t>
         </is>
       </c>
-      <c r="C43" s="4" t="inlineStr">
+      <c r="D43" s="6" t="inlineStr">
         <is>
           <t>chosen to do the right thing and I think they would make honest of others. I don't believe they would</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
+      <c r="E43" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F43" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> It is not possible to summarize the text provided as it is incomplete and lacks context. Here is a summary of a made-up text instead:
 1. The individual in question is known for their integrity.
@@ -1431,347 +1469,358 @@
 5. The individual is not likely to take advantage of others.</t>
         </is>
       </c>
-      <c r="F43" t="n">
-        <v>42</v>
-      </c>
     </row>
     <row r="44" ht="12.5" customHeight="1">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="n">
         <v>48778</v>
       </c>
-      <c r="B44" s="4" t="inlineStr">
+      <c r="C44" s="6" t="inlineStr">
         <is>
           <t>"22:13"</t>
         </is>
       </c>
-      <c r="C44" s="4" t="inlineStr">
+      <c r="D44" s="6" t="inlineStr">
         <is>
           <t>would vote in a different from the average citizen.</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>43</v>
-      </c>
+      <c r="E44" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F44" s="6" t="n"/>
     </row>
     <row r="45" ht="12.5" customHeight="1">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6" t="n">
         <v>48670</v>
       </c>
-      <c r="B45" s="4" t="inlineStr">
+      <c r="C45" s="6" t="inlineStr">
         <is>
           <t>"22:39"</t>
         </is>
       </c>
-      <c r="C45" s="4" t="inlineStr">
+      <c r="D45" s="6" t="inlineStr">
         <is>
           <t>I also agree because, you know their sister USS is 2. So we shouldn't discriminate don't just because, you know, they were convicted, you know, we should treat everyone equal and you're not States.</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
+      <c r="E45" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F45" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person agrees with a previous statement.
 2. They bring up the point that the sister organization of the previously mentioned entity is USS.
-3. They argue that discrimination should not occur based on someone being convicted.
-4. They emphasize the importance of treating everyone equally.
-5. They correct the previous speaker by pointing out that it is not "you're" states, but rather "the" states.</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>44</v>
+3. They argue that discrimination should be avoided.
+4. They mention that people should be treated equally, regardless of any convictions.
+5. They correct the previous speaker by pointing out that it's "you're" not "you're States."</t>
+        </is>
       </c>
     </row>
     <row r="46" ht="12.5" customHeight="1">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6" t="n">
         <v>48778</v>
       </c>
-      <c r="B46" s="4" t="inlineStr">
+      <c r="C46" s="6" t="inlineStr">
         <is>
           <t>"24:33"</t>
         </is>
       </c>
-      <c r="C46" s="4" t="inlineStr">
+      <c r="D46" s="6" t="inlineStr">
         <is>
           <t>I definitely have agree with the criminal penalty for misleading voters. It's</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>45</v>
-      </c>
+      <c r="E46" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F46" s="6" t="n"/>
     </row>
     <row r="47" ht="12.5" customHeight="1">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6" t="n">
         <v>48778</v>
       </c>
-      <c r="B47" s="4" t="inlineStr">
+      <c r="C47" s="6" t="inlineStr">
         <is>
           <t>"24:33"</t>
         </is>
       </c>
-      <c r="C47" s="4" t="inlineStr">
+      <c r="D47" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Should not be the person will devote. Base is a situation where they are pressured to vote against their, their beliefs or against their opinions on who's better person for the job.</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>46</v>
-      </c>
+      <c r="E47" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F47" s="6" t="n"/>
     </row>
     <row r="48" ht="12.5" customHeight="1">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="6" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6" t="n">
         <v>48622</v>
       </c>
-      <c r="B48" s="4" t="inlineStr">
+      <c r="C48" s="6" t="inlineStr">
         <is>
           <t>"25:04"</t>
         </is>
       </c>
-      <c r="C48" s="4" t="inlineStr">
+      <c r="D48" s="6" t="inlineStr">
         <is>
           <t>I do feel like having the states do random samplings of the ballots seems like a good idea just to make sure everything's going. Okay. And everything looks okay and they can make sure there's no errors going on.</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F48" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. It is suggested to have states perform random samplings of ballots.
 2. This action would ensure that everything is going smoothly.
 3. It would allow for the detection of any errors.</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>47</v>
-      </c>
     </row>
     <row r="49" ht="12.5" customHeight="1">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="6" t="n">
         <v>48692</v>
       </c>
-      <c r="B49" s="4" t="inlineStr">
+      <c r="C49" s="6" t="inlineStr">
         <is>
           <t>"25:19"</t>
         </is>
       </c>
-      <c r="C49" s="4" t="inlineStr">
+      <c r="D49" s="6" t="inlineStr">
         <is>
           <t>Here in Indiana, all of these proposals are already in place. We used all of the things that they end everything, think the word, fine.</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>48</v>
-      </c>
+      <c r="E49" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F49" s="6" t="n"/>
     </row>
     <row r="50" ht="12.5" customHeight="1">
-      <c r="A50" s="2" t="n">
-        <v>48616</v>
-      </c>
-      <c r="B50" s="4" t="inlineStr">
+      <c r="A50" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6" t="n">
+        <v>48616</v>
+      </c>
+      <c r="C50" s="6" t="inlineStr">
         <is>
           <t>"25:33"</t>
         </is>
       </c>
-      <c r="C50" s="4" t="inlineStr">
+      <c r="D50" s="6" t="inlineStr">
         <is>
           <t>We do have good systems here in Michigan.</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>49</v>
-      </c>
+      <c r="E50" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F50" s="6" t="n"/>
     </row>
     <row r="51" ht="12.5" customHeight="1">
-      <c r="A51" s="2" t="n">
-        <v>48616</v>
-      </c>
-      <c r="B51" s="4" t="inlineStr">
+      <c r="A51" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6" t="n">
+        <v>48616</v>
+      </c>
+      <c r="C51" s="6" t="inlineStr">
         <is>
           <t>"25:33"</t>
         </is>
       </c>
-      <c r="C51" s="4" t="inlineStr">
+      <c r="D51" s="6" t="inlineStr">
         <is>
           <t>I like the random checking of stacks of votes during election day. That sounds like a real good idea.</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>50</v>
-      </c>
+      <c r="E51" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F51" s="6" t="n"/>
     </row>
     <row r="52" ht="12.5" customHeight="1">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="6" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="6" t="n">
         <v>10406</v>
       </c>
-      <c r="B52" s="4" t="inlineStr">
+      <c r="C52" s="6" t="inlineStr">
         <is>
           <t>"25:51"</t>
         </is>
       </c>
-      <c r="C52" s="4" t="inlineStr">
+      <c r="D52" s="6" t="inlineStr">
         <is>
           <t>Yeah I agree. Random samples make sense as well. I'm not sure about requiring all voters to vote in person probably 99% against that unless there's some how it really easy way where, you know, you're waiting, maybe five minutes to vote.</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F52" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The use of random samples in voting is supported.
 2. The requirement of all voters to vote in person is uncertain.
-3. There is strong disagreement towards requiring in-person voting unless it is made extremely convenient.</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>51</v>
+3. There is strong disagreement towards requiring in-person voting, except if it is made extremely convenient with minimal wait times.</t>
+        </is>
       </c>
     </row>
     <row r="53" ht="12.5" customHeight="1">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6" t="n">
         <v>48778</v>
       </c>
-      <c r="B53" s="4" t="inlineStr">
+      <c r="C53" s="6" t="inlineStr">
         <is>
           <t>"26:25"</t>
         </is>
       </c>
-      <c r="C53" s="4" t="inlineStr">
+      <c r="D53" s="6" t="inlineStr">
         <is>
           <t>I had the experience that we're going to depose and in the case of disabled individuals,</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>52</v>
-      </c>
+      <c r="E53" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F53" s="6" t="n"/>
     </row>
     <row r="54" ht="12.5" customHeight="1">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="6" t="n">
         <v>48778</v>
       </c>
-      <c r="B54" s="4" t="inlineStr">
+      <c r="C54" s="6" t="inlineStr">
         <is>
           <t>"26:25"</t>
         </is>
       </c>
-      <c r="C54" s="4" t="inlineStr">
+      <c r="D54" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> we had someone meet them at the curb in front of a polling place, bring you a ballot to them. Observe as they voted it worked out very nicely for people who have some physical problem.</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>53</v>
-      </c>
+      <c r="E54" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F54" s="6" t="n"/>
     </row>
     <row r="55" ht="12.5" customHeight="1">
-      <c r="A55" s="2" t="n">
-        <v>48616</v>
-      </c>
-      <c r="B55" s="4" t="inlineStr">
+      <c r="A55" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="6" t="n">
+        <v>48616</v>
+      </c>
+      <c r="C55" s="6" t="inlineStr">
         <is>
           <t>"28:08"</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>54</v>
-      </c>
+      <c r="D55" s="6" t="n"/>
+      <c r="E55" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F55" s="6" t="n"/>
     </row>
     <row r="56" ht="12.5" customHeight="1">
-      <c r="A56" s="2" t="n">
-        <v>48616</v>
-      </c>
-      <c r="B56" s="4" t="inlineStr">
+      <c r="A56" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="6" t="n">
+        <v>48616</v>
+      </c>
+      <c r="C56" s="6" t="inlineStr">
         <is>
           <t>"28:08"</t>
         </is>
       </c>
-      <c r="C56" s="4" t="inlineStr">
+      <c r="D56" s="6" t="inlineStr">
         <is>
           <t>I like to see the voters elected official.</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>55</v>
-      </c>
+      <c r="E56" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F56" s="6" t="n"/>
     </row>
     <row r="57" ht="12.5" customHeight="1">
-      <c r="A57" s="2" t="n">
-        <v>48616</v>
-      </c>
-      <c r="B57" s="4" t="inlineStr">
+      <c r="A57" s="6" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="6" t="n">
+        <v>48616</v>
+      </c>
+      <c r="C57" s="6" t="inlineStr">
         <is>
           <t>"28:08"</t>
         </is>
       </c>
-      <c r="C57" s="4" t="inlineStr">
+      <c r="D57" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> rather than the Secretary of State, you the job,</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
+      <c r="E57" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F57" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> It is President Trump who has the authority to recognize Jerusalem as Israel's capital, and not the Secretary of State. Here are the key points from the text:
 1. The authority to recognize Jerusalem as Israel's capital lies with the President of the United States.
@@ -1782,351 +1831,240 @@
 6. Rather, it is a recognition of the historical and political reality of Jerusalem as the capital of Israel.
 7. The text emphasizes that this decision is consistent with the longstanding position of the United States government.
 8. It is also in line with the views of many members of Congress and the American people.
-9. The recognition of Jerusalem as Israel's capital is an important step in strengthening the relationship between the United States and Israel.
-10. It is a recognition of the reality on the ground and</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>56</v>
+9. The text concludes by stating that this recognition is an important step towards promoting peace and stability in the region.</t>
+        </is>
       </c>
     </row>
     <row r="58" ht="12.5" customHeight="1">
-      <c r="A58" s="2" t="n">
-        <v>48616</v>
-      </c>
-      <c r="B58" s="4" t="inlineStr">
+      <c r="A58" s="6" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="6" t="n">
+        <v>48616</v>
+      </c>
+      <c r="C58" s="6" t="inlineStr">
         <is>
           <t>"28:08"</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>57</v>
-      </c>
+      <c r="D58" s="6" t="n"/>
+      <c r="E58" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F58" s="6" t="n"/>
     </row>
     <row r="59" ht="12.5" customHeight="1">
-      <c r="A59" s="2" t="n">
-        <v>48616</v>
-      </c>
-      <c r="B59" s="4" t="inlineStr">
+      <c r="A59" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="6" t="n">
+        <v>48616</v>
+      </c>
+      <c r="C59" s="6" t="inlineStr">
         <is>
           <t>"28:08"</t>
         </is>
       </c>
-      <c r="C59" s="4" t="inlineStr">
+      <c r="D59" s="6" t="inlineStr">
         <is>
           <t>That's mine.</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>58</v>
-      </c>
+      <c r="E59" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F59" s="6" t="n"/>
     </row>
     <row r="60" ht="12.5" customHeight="1">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6" t="n">
         <v>48778</v>
       </c>
-      <c r="B60" s="4" t="inlineStr">
+      <c r="C60" s="6" t="inlineStr">
         <is>
           <t>"28:30"</t>
         </is>
       </c>
-      <c r="C60" s="4" t="inlineStr">
+      <c r="D60" s="6" t="inlineStr">
         <is>
           <t>personally acquainted with the</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>59</v>
-      </c>
+      <c r="E60" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F60" s="6" t="n"/>
     </row>
     <row r="61" ht="12.5" customHeight="1">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="6" t="n">
         <v>48778</v>
       </c>
-      <c r="B61" s="4" t="inlineStr">
+      <c r="C61" s="6" t="inlineStr">
         <is>
           <t>"28:30"</t>
         </is>
       </c>
-      <c r="C61" s="4" t="inlineStr">
+      <c r="D61" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chief of the Electoral election officer in the county. Honestly, you're in Western North Carolina. I think the currents system is working exceedingly. Well, I don't think there is to my knowledge. Any</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>60</v>
-      </c>
+      <c r="E61" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F61" s="6" t="n"/>
     </row>
     <row r="62" ht="12.5" customHeight="1">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="6" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="6" t="n">
         <v>48778</v>
       </c>
-      <c r="B62" s="4" t="inlineStr">
+      <c r="C62" s="6" t="inlineStr">
         <is>
           <t>"28:30"</t>
         </is>
       </c>
-      <c r="C62" s="4" t="inlineStr">
+      <c r="D62" s="6" t="inlineStr">
         <is>
           <t>Cheating. So to speak or any</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>61</v>
-      </c>
+      <c r="E62" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F62" s="6" t="n"/>
     </row>
     <row r="63" ht="12.5" customHeight="1">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="6" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="6" t="n">
         <v>48778</v>
       </c>
-      <c r="B63" s="4" t="inlineStr">
+      <c r="C63" s="6" t="inlineStr">
         <is>
           <t>"28:30"</t>
         </is>
       </c>
-      <c r="C63" s="4" t="inlineStr">
+      <c r="D63" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Buying of votes or anything of that nature. I just see the the way that it is running locally as being very, very adequate 24.</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>62</v>
-      </c>
+      <c r="E63" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F63" s="6" t="n"/>
     </row>
     <row r="64" ht="12.5" customHeight="1">
-      <c r="A64" s="2" t="n">
-        <v>48616</v>
-      </c>
-      <c r="B64" s="4" t="inlineStr">
+      <c r="A64" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="6" t="n">
+        <v>48616</v>
+      </c>
+      <c r="C64" s="6" t="inlineStr">
         <is>
           <t>"34:49"</t>
         </is>
       </c>
-      <c r="C64" s="4" t="inlineStr">
+      <c r="D64" s="6" t="inlineStr">
         <is>
           <t>Absolutely, they should be required.</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F64" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> I'm sorry, it seems like the text for summarization was not provided. Here's an example of how the numbered list summary would look like:
 Summarized Text:
-"The new proposal suggests implementing a policy to reduce carbon emissions and promote renewable energy. The policy would include incentives for businesses to switch to clean energy sources and penalties for excessive emissions."
-Summarized Text in Numbered List:
-1. New proposal suggests implementing a policy to reduce carbon emissions and promote renewable energy.
-2. Policy includes incentives for businesses to switch to clean energy sources.
-3. Policy also includes penalties for excessive emissions.</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>63</v>
+"The new policy includes three main changes. First, it extends the hours of operation. Second, it adds a new membership option for frequent visitors. Third, it offers a discount for groups of five or more people."
+Numbered List Summary:
+1. The policy extends the hours of operation.
+2. A new membership option is available for frequent visitors.
+3. The policy offers a discount for groups of five or more people.</t>
+        </is>
       </c>
     </row>
     <row r="65" ht="12.5" customHeight="1">
-      <c r="A65" s="2" t="n">
-        <v>48616</v>
-      </c>
-      <c r="B65" s="4" t="inlineStr">
+      <c r="A65" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="6" t="n">
+        <v>48616</v>
+      </c>
+      <c r="C65" s="6" t="inlineStr">
         <is>
           <t>"34:49"</t>
         </is>
       </c>
-      <c r="C65" s="4" t="inlineStr">
+      <c r="D65" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Otherwise, how are we going to know?</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
+      <c r="E65" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F65" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> It seems like the text you want me to summarize is not included in your message. However, I'll provide an example of how I can summarize a text in a numbered list:
-Text: "Electric vehicles (EVs) are becoming increasingly popular due to their environmental benefits and lower operating costs. There are three main types of EVs: all-electric vehicles, plug-in hybrid electric vehicles, and hybrid electric vehicles. All-electric vehicles are powered solely by electricity and have zero tailpipe emissions. Plug-in hybrid electric vehicles have both an electric motor and a gasoline engine, allowing them to switch between electric and gasoline power. Hybrid electric vehicles also have both an electric motor and a gasoline engine, but they cannot be plugged in to recharge their batteries. Instead, their batteries are charged through regenerative braking and by the gasoline engine. EVs offer several advantages over traditional gasoline-powered vehicles, including lower emissions, reduced dependence on fossil fuels, and lower operating costs. However, they also have some disadvantages, such as limited range and longer refueling times."
+Text: "Electric vehicles (EVs) are becoming increasingly popular due to their environmental benefits and lower operating costs. There are three main types of EVs: all-electric vehicles, plug-in hybrid electric vehicles, and hybrid electric vehicles. All-electric vehicles are powered solely by electricity and have zero tailpipe emissions. Plug-in hybrid electric vehicles have both an electric motor and a gasoline engine, allowing them to switch between electric and gasoline power. Hybrid electric vehicles also have both an electric motor and a gasoline engine, but they cannot be plugged in to recharge their batteries. Instead, their batteries are charged through regenerative braking and by the gasoline engine."
 Summarized text:
-1. Electric vehicles (EVs) are becoming</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>64</v>
+1. Electric vehicles (EVs) are becoming more popular due to their environmental benefits and lower operating costs.
+2. There are three main types of EVs: all-electric vehicles, plug-in hybrid electric vehicles, and hybrid electric vehicles.
+3. All-electric vehicles are</t>
+        </is>
       </c>
     </row>
     <row r="66" ht="12.5" customHeight="1">
-      <c r="A66" s="2" t="n">
-        <v>48616</v>
-      </c>
-      <c r="B66" s="4" t="inlineStr">
+      <c r="A66" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="6" t="n">
+        <v>48616</v>
+      </c>
+      <c r="C66" s="6" t="inlineStr">
         <is>
           <t>"34:49"</t>
         </is>
       </c>
-      <c r="C66" s="4" t="inlineStr">
+      <c r="D66" s="6" t="inlineStr">
         <is>
           <t>That we have an American citizen voting or not.</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>proposal</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="14.5" customHeight="1">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="14.5" customHeight="1">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>Change the primary system</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="14.5" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>Use proportional representatives to elect elected officials</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="14.5" customHeight="1">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>Change the current electoral college</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="14.5" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>Implement more accessibility to voting</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="14.5" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="14.5" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>Implement voting standards that are less strict</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="14.5" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>Implement more measures to address voter fraud</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="14.5" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t>Implement more fairness and transparency in the election process</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="14.5" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
-        <is>
-          <t>Implement limits on financing individual candidates and parties</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="14.5" customHeight="1">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t>Increase in public funding and financing for campaigns</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="14.5" customHeight="1">
-      <c r="A13" s="5" t="inlineStr">
-        <is>
-          <t>Implement a term limit for Supreme Court Justices</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="14.5" customHeight="1">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>Increase opportunities for learning about civic education in schools</t>
-        </is>
-      </c>
+      <c r="E66" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F66" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
